--- a/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
+++ b/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -216,7 +213,7 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -342,7 +339,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A2 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -577,8 +574,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A2 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,16 +671,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>

--- a/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
+++ b/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t xml:space="preserve">Endsaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein-/Auszahlungen</t>
   </si>
   <si>
     <t xml:space="preserve">Investitionen</t>
@@ -211,31 +214,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -275,13 +279,16 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>42614</v>
@@ -316,10 +323,10 @@
       <c r="M2" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -336,30 +343,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -367,7 +375,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -399,16 +407,19 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
@@ -440,12 +451,15 @@
       <c r="M2" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
@@ -477,12 +491,15 @@
       <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -514,12 +531,15 @@
       <c r="M4" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
@@ -549,6 +569,9 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,30 +595,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,13 +656,16 @@
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -668,12 +695,15 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="n">
@@ -704,6 +734,9 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
+++ b/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Monatsergebnisse" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Gesamtergebnis" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Daily results" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Monthly results" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Total results" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -180,12 +180,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,114 +220,114 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>42614</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -351,227 +355,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,146 +601,146 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="n">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
+++ b/tests/expected_results/result_test_write_results_peerberry_no_cfs.xlsx
@@ -16,7 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+  <si>
+    <t>Start balance</t>
+  </si>
+  <si>
+    <t>End balance</t>
+  </si>
+  <si>
+    <t>Deposit/Outpayment</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Redemption payments</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Interest payments</t>
+  </si>
+  <si>
+    <t>Buyback interest payments</t>
+  </si>
+  <si>
+    <t>Late fee payments</t>
+  </si>
+  <si>
+    <t>Bonus payments</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>Total income</t>
+  </si>
   <si>
     <t>Platform</t>
   </si>
@@ -25,39 +61,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Start balance</t>
-  </si>
-  <si>
-    <t>End balance</t>
-  </si>
-  <si>
-    <t>Deposit/Outpayment</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Redemption payments</t>
-  </si>
-  <si>
-    <t>Buybacks</t>
-  </si>
-  <si>
-    <t>Interest payments</t>
-  </si>
-  <si>
-    <t>Buyback interest payments</t>
-  </si>
-  <si>
-    <t>Late fee payments</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>Total income</t>
   </si>
   <si>
     <t>PeerBerry</t>
@@ -88,8 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="DD.MM.YYYY"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -143,12 +147,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,97 +450,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
         <v>42614</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -544,344 +574,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+    <row r="5" spans="1:15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
     </row>
